--- a/match_data.xlsx
+++ b/match_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\OneDrive\Documents\GitHub\euro-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Documents/GitHub/euro-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE7C106-6D75-4592-B3CD-D299013F6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C456163F-DA68-4045-99C1-77D1A5E1026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="match_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10415" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10419" uniqueCount="1220">
   <si>
     <t>Year</t>
   </si>
@@ -3976,7 +3976,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4816,16 +4816,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BP3" sqref="BP3"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BL6" sqref="BL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>44358.875</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>44359.625</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>44363.75</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>44363.875</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>19</v>
       </c>
@@ -6036,6 +6036,9 @@
       <c r="BK6" s="2">
         <v>44358</v>
       </c>
+      <c r="BL6" t="s">
+        <v>76</v>
+      </c>
       <c r="BM6" s="3" t="s">
         <v>1179</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>44367.875</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -6239,6 +6242,9 @@
       <c r="BK7" s="2">
         <v>44358</v>
       </c>
+      <c r="BL7" t="s">
+        <v>76</v>
+      </c>
       <c r="BM7" s="3" t="s">
         <v>1180</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>44367.875</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -6442,6 +6448,9 @@
       <c r="BK8" s="2">
         <v>44358</v>
       </c>
+      <c r="BL8" t="s">
+        <v>76</v>
+      </c>
       <c r="BM8" s="3" t="s">
         <v>1181</v>
       </c>
@@ -6455,7 +6464,7 @@
         <v>44359.75</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -6645,6 +6654,9 @@
       <c r="BK9" s="2">
         <v>44358</v>
       </c>
+      <c r="BL9" t="s">
+        <v>76</v>
+      </c>
       <c r="BM9" s="3" t="s">
         <v>1182</v>
       </c>
@@ -6658,7 +6670,7 @@
         <v>44359.875</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>25</v>
       </c>
@@ -6861,7 +6873,7 @@
         <v>44363.625</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>26</v>
       </c>
@@ -7064,7 +7076,7 @@
         <v>44364.75</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>31</v>
       </c>
@@ -7267,7 +7279,7 @@
         <v>44368.875</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>32</v>
       </c>
@@ -7470,7 +7482,7 @@
         <v>44368.875</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -7673,7 +7685,7 @@
         <v>44360.75</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7876,7 +7888,7 @@
         <v>44360.875</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8079,7 +8091,7 @@
         <v>44364.625</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8282,7 +8294,7 @@
         <v>44364.875</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10</v>
       </c>
@@ -8485,7 +8497,7 @@
         <v>44368.75</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -8688,7 +8700,7 @@
         <v>44368.75</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>27</v>
       </c>
@@ -8891,7 +8903,7 @@
         <v>44360.625</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -9094,7 +9106,7 @@
         <v>44361.625</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -9297,7 +9309,7 @@
         <v>44365.75</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>33</v>
       </c>
@@ -9500,7 +9512,7 @@
         <v>44365.875</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>34</v>
       </c>
@@ -9703,7 +9715,7 @@
         <v>44369.875</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>28</v>
       </c>
@@ -9906,7 +9918,7 @@
         <v>44369.875</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -10109,7 +10121,7 @@
         <v>44361.75</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -10312,7 +10324,7 @@
         <v>44361.875</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>17</v>
       </c>
@@ -10515,7 +10527,7 @@
         <v>44365.625</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>18</v>
       </c>
@@ -10718,7 +10730,7 @@
         <v>44366.875</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -10921,7 +10933,7 @@
         <v>44370.75</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -11124,7 +11136,7 @@
         <v>44370.75</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23</v>
       </c>
@@ -11327,7 +11339,7 @@
         <v>44362.75</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>24</v>
       </c>
@@ -11530,7 +11542,7 @@
         <v>44362.875</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -11733,7 +11745,7 @@
         <v>44366.625</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -11936,7 +11948,7 @@
         <v>44366.75</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12139,7 +12151,7 @@
         <v>44370.875</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12342,7 +12354,7 @@
         <v>44370.875</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12545,7 +12557,7 @@
         <v>44373.75</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12748,7 +12760,7 @@
         <v>44373.875</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12951,7 +12963,7 @@
         <v>44374.75</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13154,7 +13166,7 @@
         <v>44374.875</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13357,7 +13369,7 @@
         <v>44375.75</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13560,7 +13572,7 @@
         <v>44375.875</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13763,7 +13775,7 @@
         <v>44376.75</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13966,7 +13978,7 @@
         <v>44376.875</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>51</v>
       </c>
@@ -14169,7 +14181,7 @@
         <v>44379.75</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -14372,7 +14384,7 @@
         <v>44379.875</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -14575,7 +14587,7 @@
         <v>44380.75</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -14778,7 +14790,7 @@
         <v>44380.875</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -14981,7 +14993,7 @@
         <v>44383.875</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -15184,7 +15196,7 @@
         <v>44384.875</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -15387,7 +15399,7 @@
         <v>44388.875</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:72" ht="48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -15581,7 +15593,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -15775,7 +15787,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -15969,7 +15981,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:72" ht="64" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -16163,7 +16175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -16357,7 +16369,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -16551,7 +16563,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:72" ht="48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -16745,7 +16757,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -16939,7 +16951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:72" ht="48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17133,7 +17145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:72" ht="48" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17327,7 +17339,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:72" ht="64" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17521,7 +17533,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17715,7 +17727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17909,7 +17921,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18103,7 +18115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18297,7 +18309,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18491,7 +18503,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18685,7 +18697,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18879,7 +18891,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -19073,7 +19085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -19267,7 +19279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -19461,7 +19473,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -19655,7 +19667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -19849,7 +19861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20043,7 +20055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20237,7 +20249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20431,7 +20443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20625,7 +20637,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20819,7 +20831,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -21013,7 +21025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -21207,7 +21219,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -21401,7 +21413,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -21595,7 +21607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -21789,7 +21801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -21983,7 +21995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -22177,7 +22189,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -22371,7 +22383,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:66" ht="144" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -22565,7 +22577,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -22759,7 +22771,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -22953,7 +22965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:66" ht="128" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -23147,7 +23159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -23341,7 +23353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -23535,7 +23547,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -23729,7 +23741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -23923,7 +23935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:66" ht="112" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -24117,7 +24129,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -24311,7 +24323,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:66" ht="176" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -24505,7 +24517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -24699,7 +24711,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -24893,7 +24905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -25087,7 +25099,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -25281,7 +25293,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -25475,7 +25487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -25669,7 +25681,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:66" ht="32" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -25863,7 +25875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -26057,7 +26069,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -26251,7 +26263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -26445,7 +26457,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -26639,7 +26651,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -26833,7 +26845,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -27027,7 +27039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -27221,7 +27233,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -27415,7 +27427,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -27609,7 +27621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -27803,7 +27815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -27997,7 +28009,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -28191,7 +28203,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -28385,7 +28397,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -28579,7 +28591,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -28773,7 +28785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -28967,7 +28979,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -29161,7 +29173,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -29355,7 +29367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -29549,7 +29561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -29743,7 +29755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -29937,7 +29949,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -30131,7 +30143,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -30325,7 +30337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -30519,7 +30531,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -30713,7 +30725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -30907,7 +30919,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -31101,7 +31113,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -31295,7 +31307,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -31489,7 +31501,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -31683,7 +31695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -31877,7 +31889,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -32071,7 +32083,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -32265,7 +32277,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -32459,7 +32471,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -32653,7 +32665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -32847,7 +32859,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:66" ht="32" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -33041,7 +33053,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -33235,7 +33247,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -33429,7 +33441,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -33623,7 +33635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -33817,7 +33829,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:66" ht="128" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -34011,7 +34023,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -34205,7 +34217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:66" ht="112" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -34399,7 +34411,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -34593,7 +34605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -34787,7 +34799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -34981,7 +34993,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -35175,7 +35187,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -35369,7 +35381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -35563,7 +35575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -35757,7 +35769,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -35951,7 +35963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -36145,7 +36157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -36339,7 +36351,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -36533,7 +36545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -36727,7 +36739,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -36921,7 +36933,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -37115,7 +37127,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -37309,7 +37321,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -37503,7 +37515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -37697,7 +37709,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -37891,7 +37903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -38085,7 +38097,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -38279,7 +38291,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -38473,7 +38485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -38667,7 +38679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -38861,7 +38873,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -39055,7 +39067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -39249,7 +39261,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -39443,7 +39455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -39637,7 +39649,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -39831,7 +39843,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:66" ht="144" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -40025,7 +40037,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -40219,7 +40231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -40413,7 +40425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -40607,7 +40619,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -40801,7 +40813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:66" ht="32" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -40995,7 +41007,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -41189,7 +41201,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -41383,7 +41395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -41577,7 +41589,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:66" ht="112" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -41771,7 +41783,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:66" ht="32" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -41965,7 +41977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:66" ht="144" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -42159,7 +42171,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:66" ht="128" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -42353,7 +42365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -42547,7 +42559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -42741,7 +42753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -42935,7 +42947,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -43129,7 +43141,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -43323,7 +43335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -43517,7 +43529,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -43711,7 +43723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -43905,7 +43917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -44099,7 +44111,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -44293,7 +44305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -44487,7 +44499,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -44681,7 +44693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -44875,7 +44887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:66" ht="32" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -45069,7 +45081,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -45263,7 +45275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -45457,7 +45469,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -45651,7 +45663,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -45845,7 +45857,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -46039,7 +46051,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -46233,7 +46245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -46427,7 +46439,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:66" ht="112" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -46621,7 +46633,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -46815,7 +46827,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -47009,7 +47021,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -47203,7 +47215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -47397,7 +47409,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -47591,7 +47603,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -47785,7 +47797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -47979,7 +47991,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -48173,7 +48185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -48367,7 +48379,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -48561,7 +48573,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:66" ht="128" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -48755,7 +48767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -48949,7 +48961,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -49143,7 +49155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -49337,7 +49349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -49531,7 +49543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -49725,7 +49737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -49919,7 +49931,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -50113,7 +50125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -50307,7 +50319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -50501,7 +50513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -50695,7 +50707,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -50889,7 +50901,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -51083,7 +51095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -51277,7 +51289,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -51471,7 +51483,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -51665,7 +51677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:66" ht="48" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -51859,7 +51871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -52053,7 +52065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:66" ht="32" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -52247,7 +52259,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -52441,7 +52453,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -52635,7 +52647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -52829,7 +52841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -53023,7 +53035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -53217,7 +53229,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -53411,7 +53423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -53605,7 +53617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -53799,7 +53811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -53993,7 +54005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -54187,7 +54199,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -54381,7 +54393,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:66" ht="80" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -54575,7 +54587,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:66" ht="64" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -54769,7 +54781,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:66" ht="96" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -54963,7 +54975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:66" ht="128" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -55157,7 +55169,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
